--- a/biology/Médecine/Cofiline/Cofiline.xlsx
+++ b/biology/Médecine/Cofiline/Cofiline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cofiline ou ADF est une famille de protéine déstabilisant l'actine sous forme filamentaire. 
 </t>
@@ -511,9 +523,11 @@
           <t>Isoformes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il en existe trois, tant chez l'être humain que chez la souris[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Il en existe trois, tant chez l'être humain que chez la souris :
 la cofiline 1 ;
 la cofiline 2, essentiellement musculaire ;
 la destrine (ou ADF).</t>
@@ -544,12 +558,14 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se fixe sur la partie comportant l'actine contenant l'ADP et réalise une torsion supérieure à l'angle normal de 166°. Elle se fixe préférentiellement sur l'actine-ADP, et permet donc le renouvellement des filaments d'actine en dépolymérisant les filaments les plus anciens.
-Elle intervient dans les migrations cellulaires, la phagocytose (ou l'endocytose plus généralement)[2] ainsi que dans la dégénérescence neuronale[3].
-Elle agit également avec l'actine des muscles squelettiques et cardiaques, permettant la régulation de cette dernière en désassemblant les fibres en excès[4]. 
-Elle est inhibée lorsqu'elle est phosphorylée par le LIMK-1[5]. 
+Elle intervient dans les migrations cellulaires, la phagocytose (ou l'endocytose plus généralement) ainsi que dans la dégénérescence neuronale.
+Elle agit également avec l'actine des muscles squelettiques et cardiaques, permettant la régulation de cette dernière en désassemblant les fibres en excès. 
+Elle est inhibée lorsqu'elle est phosphorylée par le LIMK-1. 
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une mutation de la cofiline 2 est responsable d'une forme de cardiomyopathie dilatée[6]. D'autres formes de cette dernière comportent une accumulation de cofiline 2 sous forme phosphorylée, ce qui fait poser la question du rôle de cette protéine dans la genèse de la maladie[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une mutation de la cofiline 2 est responsable d'une forme de cardiomyopathie dilatée. D'autres formes de cette dernière comportent une accumulation de cofiline 2 sous forme phosphorylée, ce qui fait poser la question du rôle de cette protéine dans la genèse de la maladie.
 </t>
         </is>
       </c>
